--- a/data/performance_sheets_option2/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window1/BA47 Overall Model Peformance Results.xlsx
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02941734716296196</v>
+        <v>0.03077435120940208</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1501016318798065</v>
+        <v>0.1547156721353531</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2132741659879684</v>
+        <v>0.2248356342315674</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1715148598896374</v>
+        <v>0.1754261987543539</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.98335665464401</v>
+        <v>20.70504724979401</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03193147853016853</v>
+        <v>0.02948592230677605</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1580392867326736</v>
+        <v>0.1489985883235931</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2244259566068649</v>
+        <v>0.2058381289243698</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1786938122324568</v>
+        <v>0.1717146537333842</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.6151003241539</v>
+        <v>20.01191377639771</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3117,19 +3117,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1322042196989059</v>
+        <v>0.1288507580757141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2505795061588287</v>
+        <v>0.2439121007919312</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1106482744216919</v>
+        <v>0.1090433821082115</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.363598981982769</v>
+        <v>0.3589578778571577</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.46670228242874</v>
+        <v>9.541841596364975</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3143,23 +3143,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.215701699256897</v>
+        <v>0.1319328993558884</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.374677985906601</v>
+        <v>0.2577137053012848</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1564248502254486</v>
+        <v>0.114427387714386</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4644369701659171</v>
+        <v>0.3632256865309616</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>11.41520068049431</v>
+        <v>10.03076210618019</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05559912323951721</v>
+        <v>0.05959558486938477</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1992173194885254</v>
+        <v>0.2080786824226379</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07340046018362045</v>
+        <v>0.07675805687904358</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2357946632973639</v>
+        <v>0.2441220696073683</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.870128750801086</v>
+        <v>7.556995749473572</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4455,23 +4455,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08381566405296326</v>
+        <v>0.1255981624126434</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2498139590024948</v>
+        <v>0.2888563573360443</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09312133491039276</v>
+        <v>0.1049062460660934</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2895093505449578</v>
+        <v>0.3543983103975574</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.012951910495758</v>
+        <v>10.50804778933525</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05218750983476639</v>
+        <v>0.05047702044248581</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1942727565765381</v>
+        <v>0.1918090879917145</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06907318532466888</v>
+        <v>0.06805439293384552</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2284458575565913</v>
+        <v>0.2246709158802843</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.756401062011719</v>
+        <v>6.802781671285629</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0702856108546257</v>
+        <v>0.08821965008974075</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2365501374006271</v>
+        <v>0.2759279608726501</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.0844038650393486</v>
+        <v>0.09816619008779526</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2651143354377988</v>
+        <v>0.2970179289028539</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.954555213451385</v>
+        <v>9.819843620061874</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7047,53 +7047,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0939922034740448</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2247350364923477</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.184946894645691</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3065814793395791</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>38.52777481079102</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.07418005913496017</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.2113325893878937</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>1.030253291130066</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2723601643687273</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>42.57453680038452</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.08627616614103317</v>
+        <v>0.08705775439739227</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.222372755408287</v>
+        <v>0.2234603017568588</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.151907920837402</v>
+        <v>1.048561453819275</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2937280479304508</v>
+        <v>0.2950555107050066</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>40.66748917102814</v>
+        <v>43.45653355121613</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8357,23 +8357,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07237473875284195</v>
+        <v>0.1249544993042946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2096007764339447</v>
+        <v>0.3039100170135498</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9996007084846497</v>
+        <v>0.950634777545929</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2690255355033086</v>
+        <v>0.3534890370355134</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>45.9447056055069</v>
+        <v>70.59270739555359</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0774313360452652</v>
+        <v>0.06059855222702026</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2042246013879776</v>
+        <v>0.1611174643039703</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.043262720108032</v>
+        <v>1.083807945251465</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2782648667102356</v>
+        <v>0.2461677318964049</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>41.82066321372986</v>
+        <v>29.42017912864685</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9667,53 +9667,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07911777496337891</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1938105523586273</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1.002880811691284</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2812788206804396</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>33.1663966178894</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.0508182980120182</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1497993618249893</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.8466182351112366</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2254291418872418</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>43.66273283958435</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.06791794300079346</v>
+        <v>0.05975526943802834</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1590729355812073</v>
+        <v>0.1481008678674698</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>1.026867747306824</v>
+        <v>0.9820802807807922</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2606107116002592</v>
+        <v>0.2444489096683156</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>41.88846051692963</v>
+        <v>27.36742794513702</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5818984508514404</v>
+        <v>0.5229633450508118</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5097702145576477</v>
+        <v>0.391787201166153</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5607395172119141</v>
+        <v>0.5852138996124268</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7628226863770114</v>
+        <v>0.7231620461907634</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.82100117206573</v>
+        <v>17.90086477994919</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.6359508633613586</v>
+        <v>0.6874518990516663</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5059694051742554</v>
+        <v>0.5318166613578796</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6643708348274231</v>
+        <v>0.6605168581008911</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.797465274078664</v>
+        <v>0.8291271911182664</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.58268988132477</v>
+        <v>22.61963039636612</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12287,53 +12287,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.5665674805641174</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.467576801776886</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.6292051672935486</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.7527067693093489</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>20.52839994430542</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.5470693707466125</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.4628447294235229</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.6394697427749634</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.7396413798230954</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>23.3775794506073</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.5772749185562134</v>
+        <v>0.4467674791812897</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3890605866909027</v>
+        <v>0.3528713285923004</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6155371069908142</v>
+        <v>0.5668239593505859</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.7597861005284404</v>
+        <v>0.6684066720053665</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.44592648744583</v>
+        <v>16.59507006406784</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13597,53 +13597,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.4212243258953094</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3143534958362579</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2575844824314117</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.6490179703947414</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>14.39505964517593</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.4886951446533203</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.3525852560997009</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.2798726856708527</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.6990673391407443</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>19.54701095819473</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.3888153731822968</v>
+        <v>0.4582341015338898</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3385246098041534</v>
+        <v>0.3559817969799042</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2573549747467041</v>
+        <v>0.2704102098941803</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6235506179792437</v>
+        <v>0.6769299088782308</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.72467696666718</v>
+        <v>15.75918793678284</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -14655,23 +14655,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03410615026950836</v>
+        <v>0.02628837153315544</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1489830911159515</v>
+        <v>0.1440010517835617</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1921017616987228</v>
+        <v>0.2052151262760162</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.184678505163726</v>
+        <v>0.162136891339249</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.3506121635437</v>
+        <v>19.25539672374725</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15929,23 +15929,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04269777238368988</v>
+        <v>0.04240111634135246</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1718965768814087</v>
+        <v>0.1715415269136429</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3569171130657196</v>
+        <v>0.35809326171875</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2066343930319681</v>
+        <v>0.2059153135183308</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.05422139167786</v>
+        <v>25.95086097717285</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15959,23 +15959,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04137969389557838</v>
+        <v>0.03893797472119331</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1680995672941208</v>
+        <v>0.1612529307603836</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3512466847896576</v>
+        <v>0.3404782712459564</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2034199938442099</v>
+        <v>0.1973270754893847</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>26.07119977474213</v>
+        <v>24.59539026021957</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16987,23 +16987,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03210921958088875</v>
+        <v>0.03913510590791702</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1477293223142624</v>
+        <v>0.1538090705871582</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2060836851596832</v>
+        <v>0.2275694161653519</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1791904561657477</v>
+        <v>0.1978259485202005</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.58876776695251</v>
+        <v>26.61465704441071</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03408707678318024</v>
+        <v>0.0393863134086132</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1537362784147263</v>
+        <v>0.1622541099786758</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3093334436416626</v>
+        <v>0.3406863212585449</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1846268582389362</v>
+        <v>0.1984598533926023</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.11120939254761</v>
+        <v>24.71884489059448</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19031,23 +19031,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04742325097322464</v>
+        <v>0.06170267984271049</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1898368895053864</v>
+        <v>0.2236433923244476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06707756966352463</v>
+        <v>0.07837895303964615</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2177688016526349</v>
+        <v>0.2484002412291713</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.707515567541122</v>
+        <v>7.934249937534332</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20053,23 +20053,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06585397571325302</v>
+        <v>0.08136498928070068</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2293244004249573</v>
+        <v>0.2504324316978455</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0838741660118103</v>
+        <v>0.09009493887424469</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2566202948195115</v>
+        <v>0.2852454895010624</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.910364866256714</v>
+        <v>9.072981774806976</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21079,19 +21079,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1505890488624573</v>
+        <v>0.149107500910759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2874032557010651</v>
+        <v>0.2911758124828339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1240471228957176</v>
+        <v>0.1257352381944656</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3880580483155288</v>
+        <v>0.3861444042204406</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.47723442316055</v>
+        <v>11.25287115573883</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22349,23 +22349,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01676921732723713</v>
+        <v>0.01807878538966179</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1003528013825417</v>
+        <v>0.1063109412789345</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1343332976102829</v>
+        <v>0.1442389935255051</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1294960127850936</v>
+        <v>0.1344573738761166</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.54438126087189</v>
+        <v>14.50823396444321</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22383,19 +22383,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01617153733968735</v>
+        <v>0.02039308473467827</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09610150009393692</v>
+        <v>0.105847455561161</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1224236339330673</v>
+        <v>0.1362170428037643</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1271673595687484</v>
+        <v>0.1428043582481931</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>28.18683087825775</v>
+        <v>14.21767622232437</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23663,19 +23663,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05072315409779549</v>
+        <v>0.05127328634262085</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1983375996351242</v>
+        <v>0.2002370804548264</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07016143947839737</v>
+        <v>0.07124719023704529</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2252180145942937</v>
+        <v>0.2264360535396712</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.709697842597961</v>
+        <v>7.101193070411682</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23693,19 +23693,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04990700632333755</v>
+        <v>0.04757539927959442</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1964506208896637</v>
+        <v>0.1914318352937698</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06953652948141098</v>
+        <v>0.06767823547124863</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2233987607918575</v>
+        <v>0.218117856397853</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.709378212690353</v>
+        <v>6.790640205144882</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1368167549371719</v>
+        <v>0.1388876587152481</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.256184309720993</v>
+        <v>0.262595534324646</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1151695773005486</v>
+        <v>0.1168314218521118</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3698874895656407</v>
+        <v>0.3726763457951794</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.26372164487839</v>
+        <v>10.20680591464043</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25000,23 +25000,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1396781951189041</v>
+        <v>0.1377578973770142</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2652802169322968</v>
+        <v>0.2650399804115295</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1179057359695435</v>
+        <v>0.1168086230754852</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3737354614147607</v>
+        <v>0.3711575101988563</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.23173704743385</v>
+        <v>10.30009388923645</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26281,53 +26281,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07034684717655182</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2258196473121643</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08407346904277802</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2652298006947029</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.192910999059677</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.05674760043621063</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.2033711820840836</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.0751669779419899</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.238217548547983</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>7.799533009529114</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.06050779297947884</v>
+        <v>0.06173042580485344</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2118411213159561</v>
+        <v>0.2157780379056931</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07868055999279022</v>
+        <v>0.07913266867399216</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2459833184983869</v>
+        <v>0.2484560842580705</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.847874611616135</v>
+        <v>7.83645361661911</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27598,19 +27598,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02601054310798645</v>
+        <v>0.02632411196827888</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1423358023166656</v>
+        <v>0.1406973600387573</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2017020732164383</v>
+        <v>0.2030176818370819</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1612778444423984</v>
+        <v>0.1622470707540783</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.9845085144043</v>
+        <v>18.94104182720184</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27628,19 +27628,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02673328295350075</v>
+        <v>0.02566697262227535</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1423693895339966</v>
+        <v>0.1390858292579651</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2053079903125763</v>
+        <v>0.2022275179624557</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1635031588486924</v>
+        <v>0.1602091527418935</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.94052177667618</v>
+        <v>18.72895061969757</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28912,19 +28912,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04555517807602882</v>
+        <v>0.04250289127230644</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.181067943572998</v>
+        <v>0.1719801425933838</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.373980849981308</v>
+        <v>0.3648766279220581</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2134365902932972</v>
+        <v>0.2061622935269843</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.14966630935669</v>
+        <v>25.99829137325287</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28942,19 +28942,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03967276215553284</v>
+        <v>0.04324315115809441</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1717521548271179</v>
+        <v>0.1718170493841171</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.3470727205276489</v>
+        <v>0.3559761047363281</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1991802253124864</v>
+        <v>0.2079498765522461</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>26.2442946434021</v>
+        <v>26.01571977138519</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30224,19 +30224,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03241375833749771</v>
+        <v>0.02651759423315525</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1503163427114487</v>
+        <v>0.1427463740110397</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2494945526123047</v>
+        <v>0.226434051990509</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1800382135478402</v>
+        <v>0.16284223725175</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.48130589723587</v>
+        <v>20.40112763643265</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30254,19 +30254,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03335994109511375</v>
+        <v>0.03253073990345001</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1564947664737701</v>
+        <v>0.1530116349458694</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2517782747745514</v>
+        <v>0.2482197880744934</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1826470396560365</v>
+        <v>0.1803628007751321</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>22.0431387424469</v>
+        <v>21.74244672060013</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window1/BA47 Overall Model Peformance Results.xlsx
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04567443951964378</v>
+        <v>0.04347411915659904</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1717815101146698</v>
+        <v>0.1669512987136841</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3883230090141296</v>
+        <v>0.3771338164806366</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2137157914606307</v>
+        <v>0.208504482341745</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.75685083866119</v>
+        <v>25.81108510494232</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04416718706488609</v>
+        <v>0.04037884622812271</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1728661507368088</v>
+        <v>0.158351719379425</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3757621645927429</v>
+        <v>0.3588671982288361</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2101599083195606</v>
+        <v>0.2009448835579615</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.8162796497345</v>
+        <v>24.64224100112915</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3051,53 +3051,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3566288650035858</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3494245409965515</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2695923447608948</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5971841131540472</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>15.71489274501801</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.3594363033771515</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.3721533417701721</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.2758392691612244</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.5995300687848371</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>16.20937436819077</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.3587175607681274</v>
+        <v>0.3390321135520935</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3603038489818573</v>
+        <v>0.3582812249660492</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2725323736667633</v>
+        <v>0.2675173282623291</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5989303471758026</v>
+        <v>0.582264642196393</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>16.30481779575348</v>
+        <v>16.1007821559906</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4363,23 +4363,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2782774865627289</v>
+        <v>0.276179164648056</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3251351714134216</v>
+        <v>0.321342408657074</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.211449071764946</v>
+        <v>0.2114852070808411</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5275201290592889</v>
+        <v>0.525527510838449</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.8272225856781</v>
+        <v>13.74129503965378</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4393,23 +4393,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2926616072654724</v>
+        <v>0.2813144624233246</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3410246074199677</v>
+        <v>0.3425816595554352</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2205337285995483</v>
+        <v>0.2143272906541824</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5409820766582497</v>
+        <v>0.5303908581634157</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>14.00519013404846</v>
+        <v>14.58835452795029</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5675,53 +5675,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1540529280900955</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2518912255764008</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1195828169584274</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3924957682448252</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.09306386113167</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.1668004095554352</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2810891270637512</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.1340299993753433</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.4084120585333337</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>10.79362630844116</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.1647560149431229</v>
+        <v>0.1618784964084625</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2608399391174316</v>
+        <v>0.2677930891513824</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1250487118959427</v>
+        <v>0.1290241777896881</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4059014842829758</v>
+        <v>0.4023412685873306</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.87409406900406</v>
+        <v>10.65765023231506</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -6985,23 +6985,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08571328967809677</v>
+        <v>0.08849582821130753</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.224187970161438</v>
+        <v>0.2361167520284653</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.886384248733521</v>
+        <v>1.871461033821106</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2927683208239866</v>
+        <v>0.2974824838730972</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>47.07400500774384</v>
+        <v>44.24431025981903</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7019,19 +7019,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1911995857954025</v>
+        <v>0.07725133746862411</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.345936506986618</v>
+        <v>0.223988339304924</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9792799353599548</v>
+        <v>1.529508113861084</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4372637485493195</v>
+        <v>0.2779412482317515</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>91.06877446174622</v>
+        <v>44.394251704216</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8295,53 +8295,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.138666957616806</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2884428203105927</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.368013978004456</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3723801251635297</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>69.65267658233643</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.09504632651805878</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2339620590209961</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>2.114007949829102</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3082958425247716</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>45.39303183555603</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.08098255842924118</v>
+        <v>0.08022181689739227</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2445058822631836</v>
+        <v>0.2112008184194565</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.497833132743835</v>
+        <v>2.006562232971191</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2845743460490442</v>
+        <v>0.2832345616223279</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>46.19908034801483</v>
+        <v>45.91991603374481</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9609,19 +9609,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.07252389937639236</v>
+        <v>0.07452015578746796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2055997103452682</v>
+        <v>0.1887997388839722</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.059142112731934</v>
+        <v>2.269115686416626</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2693026167277109</v>
+        <v>0.2729838013279688</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>42.67117381095886</v>
+        <v>35.52134931087494</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9635,23 +9635,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1037242040038109</v>
+        <v>0.09561394900083542</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2545681595802307</v>
+        <v>0.2154379189014435</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>2.169624805450439</v>
+        <v>2.361418724060059</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3220624225267687</v>
+        <v>0.3092150529984519</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.7584400177002</v>
+        <v>39.19455111026764</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10915,53 +10915,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.8110418915748596</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5369628667831421</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6838329434394836</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.9005786426375321</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.25351643562317</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.7402300238609314</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.4684640169143677</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.6459283232688904</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.8603662149694927</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>24.10060465335846</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.7799926400184631</v>
+        <v>0.8213116526603699</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5096064209938049</v>
+        <v>0.4616225957870483</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6663572192192078</v>
+        <v>0.6858949661254883</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8831719198539224</v>
+        <v>0.9062624634510523</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.26732629537582</v>
+        <v>22.19390720129013</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12225,23 +12225,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7978778481483459</v>
+        <v>2.060857057571411</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5103446245193481</v>
+        <v>1.109172224998474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7024778127670288</v>
+        <v>1.086931705474854</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8932400842709344</v>
+        <v>1.435568548544935</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.37500858306885</v>
+        <v>51.41626000404358</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12255,23 +12255,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.8180826902389526</v>
+        <v>0.8207693099975586</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.601315975189209</v>
+        <v>0.5019336938858032</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6320507526397705</v>
+        <v>0.6913194060325623</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9044792370413777</v>
+        <v>0.9059631946152993</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>28.69107127189636</v>
+        <v>24.09219145774841</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13535,23 +13535,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.038014531135559</v>
+        <v>0.8410118222236633</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5799930095672607</v>
+        <v>0.5043394565582275</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4651187062263489</v>
+        <v>0.4246570467948914</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.01882998146676</v>
+        <v>0.9170669671423475</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.19432318210602</v>
+        <v>23.698490858078</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13569,19 +13569,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.867132306098938</v>
+        <v>0.8179122805595398</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5443117618560791</v>
+        <v>0.4939331710338593</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4392749965190887</v>
+        <v>0.4174011945724487</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9311993911611723</v>
+        <v>0.9043850289337722</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.25603866577148</v>
+        <v>23.39166104793549</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04420259222388268</v>
+        <v>0.04320312663912773</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1671585589647293</v>
+        <v>0.1653789579868317</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3701712489128113</v>
+        <v>0.3718557357788086</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2102441253017137</v>
+        <v>0.2078536182969345</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.62093436717987</v>
+        <v>25.60237646102905</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15867,53 +15867,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06197956576943398</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1959701180458069</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.712647020816803</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2489569556558603</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>33.21980535984039</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.06185770034790039</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1948435753583908</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.7067422866821289</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.248712083236622</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>32.91452527046204</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.06145854666829109</v>
+        <v>0.06028446927666664</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1946311295032501</v>
+        <v>0.1917540282011032</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7026510834693909</v>
+        <v>0.6975384950637817</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2479083432809213</v>
+        <v>0.2455289581223906</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>32.85422027111053</v>
+        <v>32.6904296875</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -16947,19 +16947,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06805147230625153</v>
+        <v>0.04799748584628105</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2049006223678589</v>
+        <v>0.1772221028804779</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6288294196128845</v>
+        <v>0.4925099313259125</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.260866771180715</v>
+        <v>0.2190832851823275</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>33.32449495792389</v>
+        <v>29.9540251493454</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -17965,23 +17965,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06103864684700966</v>
+        <v>0.05910962074995041</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1930408328771591</v>
+        <v>0.186679407954216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6970150470733643</v>
+        <v>0.6947168111801147</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2470600065712977</v>
+        <v>0.2431247020562707</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.85696804523468</v>
+        <v>31.92148506641388</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18991,19 +18991,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1641564965248108</v>
+        <v>0.1685272306203842</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.265252560377121</v>
+        <v>0.2709882855415344</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1281604170799255</v>
+        <v>0.1301561743021011</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4051623088649915</v>
+        <v>0.4105206823296291</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.66388711333275</v>
+        <v>10.76987907290459</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20009,23 +20009,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2747469544410706</v>
+        <v>0.2947289049625397</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.334956020116806</v>
+        <v>0.3127550780773163</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2142354547977448</v>
+        <v>0.2136439979076385</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5241630990837399</v>
+        <v>0.5428894039880864</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.81475925445557</v>
+        <v>13.37705701589584</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3528596758842468</v>
+        <v>0.370400995016098</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3593311607837677</v>
+        <v>0.3472206294536591</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2713027894496918</v>
+        <v>0.2728093564510345</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5940199288611846</v>
+        <v>0.608605779644014</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.15333706140518</v>
+        <v>15.58217853307724</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22291,19 +22291,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05163121223449707</v>
+        <v>0.05178099125623703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1820695549249649</v>
+        <v>0.1786350756883621</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.559190034866333</v>
+        <v>0.5615887045860291</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2272250255462568</v>
+        <v>0.2275543698904441</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.78706955909729</v>
+        <v>29.61057126522064</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22317,23 +22317,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05280032381415367</v>
+        <v>0.03908046334981918</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1777352094650269</v>
+        <v>0.1388407945632935</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5656412243843079</v>
+        <v>0.4774326086044312</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2297832104705513</v>
+        <v>0.197687792617094</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.92013394832611</v>
+        <v>23.91476929187775</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1604846268892288</v>
+        <v>0.1612886488437653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2667053937911987</v>
+        <v>0.2625205516815186</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.12790647149086</v>
+        <v>0.1263435333967209</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4006053255877021</v>
+        <v>0.4016075806602326</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.77782735228539</v>
+        <v>10.4734905064106</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1668197959661484</v>
+        <v>0.166277751326561</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2665636241436005</v>
+        <v>0.2704754173755646</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1288311779499054</v>
+        <v>0.1295924186706543</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4084357917300446</v>
+        <v>0.407771690197543</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.67660078406334</v>
+        <v>10.75525879859924</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3643826842308044</v>
+        <v>0.3531195819377899</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3689297735691071</v>
+        <v>0.3486404716968536</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2762632668018341</v>
+        <v>0.2696258425712585</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6036411883153803</v>
+        <v>0.5942386573909425</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.26735627651215</v>
+        <v>15.68892598152161</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24938,23 +24938,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3528433740139008</v>
+        <v>0.3582302033901215</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3494122326374054</v>
+        <v>0.3634306192398071</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2694607079029083</v>
+        <v>0.2733682096004486</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5940062070499775</v>
+        <v>0.5985233524183676</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>16.19946658611298</v>
+        <v>16.24309569597244</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26223,19 +26223,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2584414780139923</v>
+        <v>0.2718687355518341</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3098095953464508</v>
+        <v>0.3165029287338257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2037805020809174</v>
+        <v>0.2086955904960632</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5083713977143013</v>
+        <v>0.5214103331847521</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.76675218343735</v>
+        <v>13.58986496925354</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26249,23 +26249,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2618475556373596</v>
+        <v>0.2519374787807465</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3325617909431458</v>
+        <v>0.2976775169372559</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2092988789081573</v>
+        <v>0.2000249624252319</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.511710421661861</v>
+        <v>0.5019337394325535</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.95363062620163</v>
+        <v>12.92401403188705</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -27532,53 +27532,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04595769569277763</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1721003949642181</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.388188362121582</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2143774607853578</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>26.48917734622955</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.04290273040533066</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1648816019296646</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.3734214305877686</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.2071297429277859</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>25.6746917963028</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.04262511432170868</v>
+        <v>0.04232477024197578</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1654815524816513</v>
+        <v>0.1633329838514328</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3739128410816193</v>
+        <v>0.3700815141201019</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2064585050844568</v>
+        <v>0.2057298477177675</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>25.71310102939606</v>
+        <v>25.30285120010376</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28850,19 +28850,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.06085896492004395</v>
+        <v>0.06415746361017227</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1932929158210754</v>
+        <v>0.2002086192369461</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6995523571968079</v>
+        <v>0.7161024212837219</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2466960983072978</v>
+        <v>0.2532932364082631</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>32.86467790603638</v>
+        <v>33.81300568580627</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28876,23 +28876,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06294231861829758</v>
+        <v>0.06171240657567978</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1951826512813568</v>
+        <v>0.1948642730712891</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7112314105033875</v>
+        <v>0.7059478163719177</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2508830775845545</v>
+        <v>0.2484198192086931</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>32.91215896606445</v>
+        <v>33.08876156806946</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30158,23 +30158,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0514930933713913</v>
+        <v>0.05190809816122055</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1801153421401978</v>
+        <v>0.1795355677604675</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5591598749160767</v>
+        <v>0.55755615234375</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2269208967270121</v>
+        <v>0.2278334877958474</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.85570132732391</v>
+        <v>29.77307140827179</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30188,23 +30188,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05297140032052994</v>
+        <v>0.05106315761804581</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1844360381364822</v>
+        <v>0.1776899844408035</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5597690343856812</v>
+        <v>0.5447075963020325</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2301551657480882</v>
+        <v>0.2259715858643423</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.83018159866333</v>
+        <v>29.57753241062164</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window1/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window1/BA47 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05711094841978287</v>
+        <v>0.04322571657369362</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1969742095635587</v>
+        <v>0.1707991972353864</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3214520643100089</v>
+        <v>0.3525562029133691</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2389789706643304</v>
+        <v>0.2079079521656005</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.63180982499702</v>
+        <v>33.1105188832094</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.07488735738914702</v>
+        <v>0.04218486862826609</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2317225895985426</v>
+        <v>0.1730931492025985</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3936214306333721</v>
+        <v>0.358945603787118</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2736555451459864</v>
+        <v>0.2053895533571902</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>36.2497118520688</v>
+        <v>33.84839402303264</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -1158,23 +1158,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04782461270304932</v>
+        <v>0.03737441403229842</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.169841879221391</v>
+        <v>0.1469049455553973</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3057500467735583</v>
+        <v>0.3398439709761343</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2186883917885202</v>
+        <v>0.1933246337958472</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.63578180455797</v>
+        <v>27.45234780667056</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1188,23 +1188,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05793623416923478</v>
+        <v>0.03656256011722341</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1811546640468206</v>
+        <v>0.1435071833462095</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3484757540145436</v>
+        <v>0.322246966356147</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2406994685686588</v>
+        <v>0.1912133889590983</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.87113726915815</v>
+        <v>26.55458239839047</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07034854138090758</v>
+        <v>0.09765427819104622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2114823228003608</v>
+        <v>0.2515667834064303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4172056567556154</v>
+        <v>0.8610690020488001</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2652329945178533</v>
+        <v>0.3124968450897484</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>33.4601662529774</v>
+        <v>41.86646044769512</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -1250,23 +1250,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1088288500423095</v>
+        <v>0.1092476565941684</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2829967702282941</v>
+        <v>0.2701496872591781</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5194284008763507</v>
+        <v>0.9176202199998523</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3298921794197455</v>
+        <v>0.3305263326789084</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>49.55032438958884</v>
+        <v>44.66374368596922</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -1282,23 +1282,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0533224282163323</v>
+        <v>0.0584249590230185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1816258351434023</v>
+        <v>0.1831833803425874</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3453322867817593</v>
+        <v>0.4446796677293913</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.230916496197938</v>
+        <v>0.2417125545415846</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.34026631476321</v>
+        <v>37.84792818627312</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -1312,23 +1312,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0533224282163323</v>
+        <v>0.04336397527923206</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1816258351434023</v>
+        <v>0.1610316936038721</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3453322867817593</v>
+        <v>0.4593478883367911</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.230916496197938</v>
+        <v>0.2082401865136316</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.34026631476321</v>
+        <v>29.71753643728919</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -2085,19 +2085,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.435094468241293e-07</v>
+        <v>1.014564593244426</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0006960363455479542</v>
+        <v>0.806423824562803</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0003069671655411426</v>
+        <v>0.4019303374715018</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0008622699384903368</v>
+        <v>1.007255972056967</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0306927505539076</v>
+        <v>39.71741228687995</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2115,19 +2115,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>6.220468290524006e-07</v>
+        <v>0.9650293504760266</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0006249774222094736</v>
+        <v>0.7704952606745978</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002723041086438248</v>
+        <v>0.3706558593701992</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0007886994541981125</v>
+        <v>0.9823590741047932</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02722778185069674</v>
+        <v>38.1505818175559</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2473,53 +2473,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6475270458195315</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6931836274184703</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3587957490772656</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.804690652250622</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>32.47002494182001</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.4266370414123486</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.5964264174334697</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.2664584696113272</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.6531745872370944</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>27.09366386041135</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.894228073201574</v>
+        <v>0.5077554251282672</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.773555223217453</v>
+        <v>0.5734073867405645</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3130703150879155</v>
+        <v>0.3274512466763256</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.9456363324246664</v>
+        <v>0.7125695931824956</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>35.87464662272004</v>
+        <v>26.50671803594716</v>
       </c>
     </row>
     <row r="14">
@@ -2535,23 +2535,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3590938153752732</v>
+        <v>0.8741105005215475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4866405467691727</v>
+        <v>0.722064898625238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2817324514040365</v>
+        <v>0.5124343021136242</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5992443703325657</v>
+        <v>0.9349387683273956</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>21.54225009302883</v>
+        <v>32.33980596300274</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2569,19 +2569,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6328726050940819</v>
+        <v>0.8856440585132378</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6080435637924687</v>
+        <v>0.6477940469639469</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3841973569517719</v>
+        <v>0.4916956867357335</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7955329063552821</v>
+        <v>0.9410866370920574</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.15294205067361</v>
+        <v>29.40010403820562</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2601,19 +2601,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3700911250883226</v>
+        <v>0.4812104324713921</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4869804297767677</v>
+        <v>0.537378250705164</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2829474712948019</v>
+        <v>0.3756962806456992</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6083511527796447</v>
+        <v>0.693693327394312</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>21.51742966232238</v>
+        <v>24.69407464670671</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -2627,23 +2627,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>1.368556975879065</v>
+        <v>0.4330143378408965</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.9330815357884799</v>
+        <v>0.4998069710513106</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.4212319713873176</v>
+        <v>0.3592772058062841</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>1.169853399310813</v>
+        <v>0.658038249527257</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>45.30619957029054</v>
+        <v>23.1612811980699</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -3397,19 +3397,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.168070912952423e-06</v>
+        <v>0.4993507878828367</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0008624718759514159</v>
+        <v>0.538756335666679</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0003523000829698699</v>
+        <v>0.23474018201116</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.001080773293967066</v>
+        <v>0.7066475697848515</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.03522929261133467</v>
+        <v>24.06356122140812</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3427,19 +3427,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>6.915533407040345e-07</v>
+        <v>0.5832506967521713</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0006299525425030434</v>
+        <v>0.5997214126705636</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002797815396302997</v>
+        <v>0.251838781810841</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0008315968618892417</v>
+        <v>0.7637085155687158</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02797181496703261</v>
+        <v>27.26596954365117</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3785,53 +3785,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.159148825289555</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.9506153224562494</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3671062257183184</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.07663774097398</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>45.93128136858265</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.6824535963602113</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.7469609144765588</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.2880469322879861</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.8261074968551074</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>32.75402243782088</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.1925422435711667</v>
+        <v>1.326871523796</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3696874338783736</v>
+        <v>1.040255761233494</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1412802618566836</v>
+        <v>0.4143381491230446</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.4387963577460126</v>
+        <v>1.151899094450551</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>15.09463137765473</v>
+        <v>50.17198407699398</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3851,19 +3851,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.217827713639612</v>
+        <v>0.5610728649523015</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3779279903604303</v>
+        <v>0.6262077127847951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1948290425010798</v>
+        <v>0.3722388389109658</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4667201663091193</v>
+        <v>0.7490479723971633</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>16.28047943580241</v>
+        <v>27.986666179987</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3881,19 +3881,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5089600754146586</v>
+        <v>0.4718958577194642</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5928022445646527</v>
+        <v>0.4709272284862346</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2919941931462042</v>
+        <v>0.3379318778850728</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7134143784748515</v>
+        <v>0.6869467648365951</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.06634983116772</v>
+        <v>20.94407079568091</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3909,23 +3909,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5353415619006114</v>
+        <v>0.4707160262658966</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6340673769926954</v>
+        <v>0.580743779223881</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2771774935712131</v>
+        <v>0.3301853050370288</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7316703915702831</v>
+        <v>0.6860874771236513</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.44773097692577</v>
+        <v>26.12533443863607</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -3943,19 +3943,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.3345887360654838</v>
+        <v>0.5179877009716286</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4484663795116322</v>
+        <v>0.6168646884810614</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2346270864171938</v>
+        <v>0.3407560264196924</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.5784364581053686</v>
+        <v>0.7197136242781768</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>18.96707431763318</v>
+        <v>27.6663506396885</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -4709,19 +4709,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.552768881428547e-07</v>
+        <v>0.747880963136305</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0006067454222735208</v>
+        <v>0.7491534203314371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.000219157900642905</v>
+        <v>0.2822815723082941</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0006747420900928403</v>
+        <v>0.8648011118958538</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.02191852496632735</v>
+        <v>33.61064226194666</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4739,19 +4739,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>4.113921977312938e-07</v>
+        <v>0.7154634678890927</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0005664393428511709</v>
+        <v>0.7209972983111708</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002007316300561637</v>
+        <v>0.2705101469893688</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0006413986262312181</v>
+        <v>0.8458507361757703</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02007558202039734</v>
+        <v>32.24449617679603</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -5097,23 +5097,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7657392993296395</v>
+        <v>1.432352408755122</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.803354755075853</v>
+        <v>1.086316093230818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2923472621363629</v>
+        <v>0.3947922835647191</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8750653114651725</v>
+        <v>1.196809261643276</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.44996724998132</v>
+        <v>51.79636899982403</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5127,23 +5127,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.03047983994014</v>
+        <v>2.356760646733567</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.925634423743036</v>
+        <v>1.328344463591554</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3405179037741792</v>
+        <v>0.4827587074090408</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.015125529153976</v>
+        <v>1.535174467848383</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>42.89185245663258</v>
+        <v>70.4490547017573</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5163,19 +5163,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.683976296777369e-05</v>
+        <v>0.3982844549834425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004492802442969182</v>
+        <v>0.455714966770633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.001671776872376179</v>
+        <v>0.2961997946012099</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005180710662425927</v>
+        <v>0.631097817286229</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1673634735282677</v>
+        <v>20.08368911790237</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.02053779837722841</v>
+        <v>0.5370954931550332</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.09484616035974779</v>
+        <v>0.6144493066465242</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.04563702312811145</v>
+        <v>0.3425027171414468</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1433101475026399</v>
+        <v>0.7328679916294839</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>4.192451759630324</v>
+        <v>27.13234051611044</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5221,53 +5221,53 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4788684728153519</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5884459858085057</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.3123531479688834</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.6920032317954533</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>25.99337868234771</v>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting Regressor</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>2.907542505191095</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>1.479089286485184</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0.5588100453341923</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>1.705151754299627</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>91.42810486691275</v>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.05}</t>
-        </is>
-      </c>
       <c r="L15" s="8" t="n">
-        <v>0.8028118909056675</v>
+        <v>4.560520813360522</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.8506529574710268</v>
+        <v>1.9278227489932</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3132503873755063</v>
+        <v>0.7098234902814248</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.8959977069756749</v>
+        <v>2.135537593525462</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>37.13462411265323</v>
+        <v>121.2860557943567</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -6019,19 +6019,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07767411742951694</v>
+        <v>0.04813482184108547</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2153836986181518</v>
+        <v>0.179977368276612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.98950721425032</v>
+        <v>0.4808472386421169</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.278700766826209</v>
+        <v>0.2193964945961659</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>40.43774234951586</v>
+        <v>32.31385499797438</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6049,19 +6049,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.07764952115077334</v>
+        <v>0.04747112769108015</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.215236030499502</v>
+        <v>0.1658301196769188</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.990346503979044</v>
+        <v>0.5601013956557856</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2786566366530202</v>
+        <v>0.2178786994891427</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>40.41334656182822</v>
+        <v>29.72719459623329</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6407,23 +6407,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0817388606434457</v>
+        <v>0.04872246001492547</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2204336844674062</v>
+        <v>0.1647122396105689</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.015202668382321</v>
+        <v>0.3866943942799669</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2859000885684467</v>
+        <v>0.2207316470625032</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>40.96170972969759</v>
+        <v>29.60621686503261</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6437,23 +6437,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.08041592378196985</v>
+        <v>0.04895682557063766</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2172326090675051</v>
+        <v>0.1563369623018411</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2.006789542272275</v>
+        <v>0.6174031935700951</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2835770156094634</v>
+        <v>0.221261893625264</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>40.53304193874445</v>
+        <v>28.56709738812241</v>
       </c>
     </row>
     <row r="14">
@@ -6469,23 +6469,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08347151268719688</v>
+        <v>0.05923868853936574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2300586796357965</v>
+        <v>0.1830476251605996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.972662065636879</v>
+        <v>0.6221386006969767</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2889143691255194</v>
+        <v>0.2433899926853315</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>42.47368269166133</v>
+        <v>32.03504227495549</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6499,23 +6499,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.08231178539478079</v>
+        <v>0.07738119648365603</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2263661839631607</v>
+        <v>0.2382845546411308</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.951663122018345</v>
+        <v>0.6480933450060115</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2869003056721634</v>
+        <v>0.2781747588902632</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>42.09190992520988</v>
+        <v>41.33708362643196</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6531,53 +6531,53 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.05850247171130592</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1820733809382824</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.3845742418677817</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2418728420292487</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>32.22765873766599</v>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting Regressor</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>0.07589086045531343</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0.2149633957094485</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>1.964357105660166</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0.2754829585569921</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>40.54338199827327</v>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
-        </is>
-      </c>
       <c r="L15" s="8" t="n">
-        <v>0.07023387993212976</v>
+        <v>0.05846315396323661</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2113856696467458</v>
+        <v>0.1899874899891309</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.765572981152482</v>
+        <v>0.6045655298949658</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2650167540593042</v>
+        <v>0.2417915506448408</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>40.50376720310435</v>
+        <v>33.43764838226924</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06283732449638973</v>
+        <v>0.05966456613391707</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1662601788373904</v>
+        <v>0.1932715657497083</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.094275137346886</v>
+        <v>0.6557292931972015</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.250673741138536</v>
+        <v>0.2442633131150011</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>33.07501621607687</v>
+        <v>34.7354626062633</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7359,19 +7359,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06795851687705742</v>
+        <v>0.06020623235360354</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1705104905905322</v>
+        <v>0.1954899382964908</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>2.167876522684112</v>
+        <v>0.6584089912084906</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2606885438162894</v>
+        <v>0.245369583187492</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>33.4175872033243</v>
+        <v>35.10885273557687</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7717,23 +7717,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07963147539351006</v>
+        <v>0.0562068940544198</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1801741421529434</v>
+        <v>0.1770407574523219</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.28736318437162</v>
+        <v>0.6741008799622275</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2821904948674035</v>
+        <v>0.2370799317833962</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>34.18592962808889</v>
+        <v>31.93535318940185</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7747,23 +7747,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.08536449244007495</v>
+        <v>0.05670988024172621</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1884682371524556</v>
+        <v>0.1819029662473627</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2.372113845058515</v>
+        <v>0.674910342643401</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2921720254235079</v>
+        <v>0.2381383636496359</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>34.9032743634439</v>
+        <v>32.63551323224827</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7779,53 +7779,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.06135558107517523</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1983688519651187</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.6672634566256919</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2477005875551676</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>35.54656431754334</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.07630192656413227</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.2077661734707607</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>2.210961058453662</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.276228033631875</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>39.37801673921883</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.07187830768192523</v>
+        <v>0.06611554117632351</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1819240890749896</v>
+        <v>0.2100243333053387</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.1929434018389</v>
+        <v>0.7054864898015341</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.268101301156718</v>
+        <v>0.2571294249523448</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.13721099089352</v>
+        <v>37.21902479205584</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7841,23 +7841,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08325397348172775</v>
+        <v>0.06054821712659977</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1870412435023257</v>
+        <v>0.1968028488520547</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.344573692932179</v>
+        <v>0.6577627012179064</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2885376465588637</v>
+        <v>0.2460654732517339</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>35.10654496841562</v>
+        <v>35.34839791535524</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -7871,23 +7871,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.08642413122027513</v>
+        <v>0.06054821712659977</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1962485974464824</v>
+        <v>0.1968028488520547</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>2.411383052921505</v>
+        <v>0.6577627012179064</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.293979814307505</v>
+        <v>0.2460654732517339</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>36.35987148985193</v>
+        <v>35.34839791535524</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -8639,19 +8639,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06169266861625795</v>
+        <v>0.05816705016142919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.153835064247155</v>
+        <v>0.1865522957650605</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.164087916067711</v>
+        <v>0.6948003368458086</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2483800890092802</v>
+        <v>0.2411784612303287</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>31.98737326905768</v>
+        <v>34.38995277154184</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8669,19 +8669,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0588596298102896</v>
+        <v>0.05871786086810213</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1627785331762579</v>
+        <v>0.187718511632521</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>2.082098442783918</v>
+        <v>0.7016026186866723</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2426100364995018</v>
+        <v>0.242317685834324</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>32.98494784478724</v>
+        <v>34.55322052002428</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9027,23 +9027,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06229022517413649</v>
+        <v>0.03698635467064108</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1482864255431348</v>
+        <v>0.1483102111752231</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.240911555097826</v>
+        <v>0.5636741089275896</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2495800977124107</v>
+        <v>0.1923183680011898</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>30.09405144068408</v>
+        <v>29.17602745661279</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9057,23 +9057,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06231353346056387</v>
+        <v>0.03559037244447227</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1546282410626998</v>
+        <v>0.1433007604271589</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2.265566393149162</v>
+        <v>0.5376569889306975</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2496267883472522</v>
+        <v>0.1886541079448636</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>30.1064966027312</v>
+        <v>28.40717594929379</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9093,19 +9093,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1033774173730206</v>
+        <v>0.04635503200309194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2641820422753459</v>
+        <v>0.1681640831807236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.947414065028084</v>
+        <v>0.6258038318224367</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3215235875842092</v>
+        <v>0.2153021876412126</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>48.20417070931921</v>
+        <v>31.93939293533011</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9119,23 +9119,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06077388839321395</v>
+        <v>0.07714642588107172</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1809469144139687</v>
+        <v>0.226236321222326</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.111665492841754</v>
+        <v>0.7666394903777312</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2465236061581405</v>
+        <v>0.2777524543205185</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.55806151530223</v>
+        <v>40.82593362998656</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9155,19 +9155,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06402039520372269</v>
+        <v>0.03311534555133196</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1532685870359147</v>
+        <v>0.1462152032621536</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.19899182162939</v>
+        <v>0.531677618934066</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2530225191632608</v>
+        <v>0.1819762224889064</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>30.50181463777772</v>
+        <v>30.1212715801819</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -9181,23 +9181,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.08679565855377319</v>
+        <v>0.03331506562409454</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1848105085894279</v>
+        <v>0.1450814984490429</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>2.553479706604655</v>
+        <v>0.5103747537063154</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2946110292466546</v>
+        <v>0.1825241507968043</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>33.48729996512908</v>
+        <v>29.58066379230349</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -9949,19 +9949,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6819111179205247</v>
+        <v>0.2956468515117814</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3907090074998665</v>
+        <v>0.4478394268289104</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6102042502153687</v>
+        <v>0.2252918360083195</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8257790975318549</v>
+        <v>0.5437341735736144</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>19.80595941095279</v>
+        <v>20.24751099815433</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9979,19 +9979,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.7062605902349544</v>
+        <v>0.3392616704841938</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3782463967698612</v>
+        <v>0.4606751274161321</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6251632461679436</v>
+        <v>0.2338481855298959</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8403931164847522</v>
+        <v>0.5824617330642364</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>19.2893579027579</v>
+        <v>20.83568565539163</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -10337,23 +10337,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7744847223040554</v>
+        <v>0.355017442036676</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.405526402997754</v>
+        <v>0.4455441812561982</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6420501408614893</v>
+        <v>0.2368911184875866</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8800481363562197</v>
+        <v>0.5958334012428944</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>20.13337005754142</v>
+        <v>20.99768840172644</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10367,23 +10367,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.7456859350469427</v>
+        <v>0.4454874729237347</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.4164403270434652</v>
+        <v>0.4587817066163705</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6293192698650478</v>
+        <v>0.242968616329592</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.8635310851654054</v>
+        <v>0.6674484796025343</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>20.73748510890637</v>
+        <v>21.52818711933383</v>
       </c>
     </row>
     <row r="14">
@@ -10399,23 +10399,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.930624872358748</v>
+        <v>0.3300961286057974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5156106829081213</v>
+        <v>0.3250536096126262</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7123270985641471</v>
+        <v>0.257267112296279</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9646890029220547</v>
+        <v>0.5745399277733423</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>23.87946612600044</v>
+        <v>14.88787164100194</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10429,23 +10429,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.7325048353099456</v>
+        <v>0.3145848576443857</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5223286772544793</v>
+        <v>0.2975537039440193</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6020099676381397</v>
+        <v>0.2458461966520092</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8558649632447548</v>
+        <v>0.560878647877048</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.30724513885542</v>
+        <v>13.93455925393707</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10461,23 +10461,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7654068046741966</v>
+        <v>0.2987995269459514</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4520664310822353</v>
+        <v>0.4213767271040849</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6483598021688509</v>
+        <v>0.2479675765535469</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8748753080720685</v>
+        <v>0.5466255820449235</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>22.05424734793423</v>
+        <v>19.01330501371497</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10491,23 +10491,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.7995533450592808</v>
+        <v>0.3431125763759809</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4487743231334594</v>
+        <v>0.4415313224310108</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6618913179018399</v>
+        <v>0.2592044425796889</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.8941774684363729</v>
+        <v>0.5857581210499612</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>21.62080698441242</v>
+        <v>19.78092308767945</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11259,19 +11259,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.698651742303974</v>
+        <v>0.3888263335411221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.381819209707241</v>
+        <v>0.4797369333433297</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6493021168711317</v>
+        <v>0.2634471705650731</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8358539000949712</v>
+        <v>0.6235594065853887</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>19.70142286297624</v>
+        <v>22.2307504245221</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11289,19 +11289,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.7528317321907791</v>
+        <v>0.3857026692436729</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3873358990026414</v>
+        <v>0.4766822278536231</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.6714149430986102</v>
+        <v>0.2615665451393044</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8676587648325689</v>
+        <v>0.621049651190364</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>19.71944862794596</v>
+        <v>22.06073187832051</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11647,23 +11647,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7105612899203079</v>
+        <v>0.3827950600801985</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3773838305991469</v>
+        <v>0.4539802725754553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6140936676904073</v>
+        <v>0.2573614832232258</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8429479758088917</v>
+        <v>0.6187043397942175</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.57018449954307</v>
+        <v>21.23249312670507</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11677,23 +11677,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.7057919556862283</v>
+        <v>0.4255636151208602</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.395440258935476</v>
+        <v>0.4804035244077977</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5870135094831302</v>
+        <v>0.2746414685959994</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.8401142515671475</v>
+        <v>0.65235237036502</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>20.38537532853475</v>
+        <v>22.37672095415297</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11709,23 +11709,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.067405144586655</v>
+        <v>0.4347208564241373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7400410708391992</v>
+        <v>0.3609864539467778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7426465801188021</v>
+        <v>0.3103571704040904</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.033153011216952</v>
+        <v>0.6593336457546644</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.88532974583173</v>
+        <v>16.42446417381496</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11743,19 +11743,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.069230759000404</v>
+        <v>0.4628740767723892</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.7250418672277814</v>
+        <v>0.4319680125356379</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.7599066610093956</v>
+        <v>0.3285846305744838</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.034036149755126</v>
+        <v>0.6803484965606885</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.61294122069144</v>
+        <v>19.57924789467377</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11771,23 +11771,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7112960791689561</v>
+        <v>0.3951595900654866</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4441750714026826</v>
+        <v>0.492591636884008</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.631626423897631</v>
+        <v>0.2989854184804638</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8433837081476948</v>
+        <v>0.6286172047164209</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>22.2209187755355</v>
+        <v>22.29674636394536</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11801,23 +11801,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.7126784399201699</v>
+        <v>0.4098330360492432</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4391197840116309</v>
+        <v>0.505029352992487</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6677616955552682</v>
+        <v>0.3023620912631633</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.8442028428761478</v>
+        <v>0.6401820335258115</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>21.7122765816437</v>
+        <v>22.83697916159309</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -12569,19 +12569,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7475318987411079</v>
+        <v>0.4423391204677697</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4106457099233881</v>
+        <v>0.5265959316945936</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3778720605396499</v>
+        <v>0.3003629780156265</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.86459927061102</v>
+        <v>0.6650857993280038</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>20.43743879115864</v>
+        <v>24.7159737219939</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12599,19 +12599,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.6418505664658002</v>
+        <v>0.4058877402830559</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3558988834202167</v>
+        <v>0.4780542806588488</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3426173384464392</v>
+        <v>0.3040608357070432</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8011557691646489</v>
+        <v>0.6370931959164655</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>18.58565475141003</v>
+        <v>22.73555938560357</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12961,19 +12961,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7807949213318834</v>
+        <v>0.32391784961138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4148218768119544</v>
+        <v>0.4067838649892199</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3864408069701071</v>
+        <v>0.2430693643383469</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8836260076140151</v>
+        <v>0.5691378124948122</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>20.58096112460683</v>
+        <v>19.95858726961752</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12987,23 +12987,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.681253397276347</v>
+        <v>0.4326354570493506</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3693436543054735</v>
+        <v>0.4668710864270333</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3528563837577098</v>
+        <v>0.3122336939205861</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.8253807589690634</v>
+        <v>0.6577502999234213</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.89651869161739</v>
+        <v>22.62660402857724</v>
       </c>
     </row>
     <row r="14">
@@ -13023,19 +13023,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8433559609163713</v>
+        <v>0.4289562433346281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4468979193019311</v>
+        <v>0.3523094648581273</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4090674925999497</v>
+        <v>0.3523471887352657</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.918344140786215</v>
+        <v>0.6549475118928448</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>21.43549362846887</v>
+        <v>17.1067394121012</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13049,23 +13049,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.9368426487448001</v>
+        <v>0.4271745505596504</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5968305651512215</v>
+        <v>0.4007654811681077</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4427999537570252</v>
+        <v>0.3613550868549241</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.9679063222981861</v>
+        <v>0.6535859167390698</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>28.29153245699589</v>
+        <v>19.04004025556016</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13081,23 +13081,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.858624772035784</v>
+        <v>0.397618554077404</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4116399572229176</v>
+        <v>0.4927722367351799</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3851372318186701</v>
+        <v>0.3341527121362031</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9266200796636042</v>
+        <v>0.6305700231357371</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.99698448018734</v>
+        <v>23.05784826124118</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -13111,23 +13111,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.7151996616182119</v>
+        <v>0.4178957397520117</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.4113225518369991</v>
+        <v>0.5014113474217824</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3733505297219868</v>
+        <v>0.3360502401750901</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.8456947804132481</v>
+        <v>0.6464485592466053</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>20.4735388861016</v>
+        <v>23.50070814942051</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -13879,19 +13879,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06791622915684097</v>
+        <v>0.0599242431604279</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1968269892673761</v>
+        <v>0.200477912748013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4044410352784266</v>
+        <v>0.4308484953829553</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2606074234492198</v>
+        <v>0.2447942874342208</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.70932223405143</v>
+        <v>41.52108436384259</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14177,23 +14177,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0623408958777275</v>
+        <v>0.04020911769811088</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1909769012442592</v>
+        <v>0.1598887310057282</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3786855412628771</v>
+        <v>0.4772447804605338</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2496815889843051</v>
+        <v>0.2005221127409914</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>29.7809600514875</v>
+        <v>29.77398510796248</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14225,19 +14225,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04775393354380646</v>
+        <v>0.07268906404528855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1815304752379422</v>
+        <v>0.2126239530707497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3464340410478971</v>
+        <v>0.6970646137056435</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2185267341626796</v>
+        <v>0.2696090948860749</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>28.85071189846893</v>
+        <v>36.44269417083148</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -14265,23 +14265,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05822548227410129</v>
+        <v>0.05846315396323661</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.183802417676406</v>
+        <v>0.1899874899891309</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3539864421930254</v>
+        <v>0.6045655298949658</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2412995695688272</v>
+        <v>0.2417915506448408</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.67913494107799</v>
+        <v>33.43764838226924</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -14901,19 +14901,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04786058754560972</v>
+        <v>0.0648462505725063</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1690965976565373</v>
+        <v>0.1948638365664415</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3795205863970075</v>
+        <v>0.4474842401792121</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.218770627703103</v>
+        <v>0.2546492697270233</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.83910213755403</v>
+        <v>37.31514634172212</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14931,19 +14931,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06103007739655138</v>
+        <v>0.06755978915045495</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1885813591937953</v>
+        <v>0.1969902923098687</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3835495536664312</v>
+        <v>0.4479304783497172</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2470426631101426</v>
+        <v>0.2599226599403271</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>34.98046102485668</v>
+        <v>37.6424454867823</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -15289,23 +15289,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03656783285838837</v>
+        <v>0.04352036646654298</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1475059964804845</v>
+        <v>0.1591213629954098</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3310666940263506</v>
+        <v>0.481254725368958</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1912271760456352</v>
+        <v>0.2086153552990359</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.5940087048199</v>
+        <v>31.00041316241869</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15319,23 +15319,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03874676166065973</v>
+        <v>0.0441415650690862</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1551865770737828</v>
+        <v>0.1611665534266292</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3354320592911148</v>
+        <v>0.502941221525869</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1968419712882893</v>
+        <v>0.2100989411422299</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>28.24834360179573</v>
+        <v>31.16611848794781</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15355,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06219671611661811</v>
+        <v>0.08870776043339909</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2111744462858521</v>
+        <v>0.2463929265436479</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5986896873493699</v>
+        <v>0.9011435694283552</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2493926945935228</v>
+        <v>0.2978384804443494</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>37.27988186746291</v>
+        <v>43.14121634483165</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15385,19 +15385,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04518463841236366</v>
+        <v>0.1133339293195652</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1708342302657901</v>
+        <v>0.2837298573928634</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5268842006071938</v>
+        <v>0.9956556669967633</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2125667857694698</v>
+        <v>0.3366510497823602</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>30.76069904298571</v>
+        <v>49.64256374713834</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -15413,23 +15413,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06012039664693256</v>
+        <v>0.07741380410123623</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1952319723902588</v>
+        <v>0.1987744390343214</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5874884656029552</v>
+        <v>0.8444603749318789</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2451946097428175</v>
+        <v>0.278233362667449</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>33.94963568954453</v>
+        <v>36.01521252445231</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -15443,23 +15443,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04271540427339914</v>
+        <v>0.06743289983958836</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1599904621951073</v>
+        <v>0.2088630141356293</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.4948196806283228</v>
+        <v>0.7530095870444297</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.206677053088627</v>
+        <v>0.2596784547081031</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.77880487470516</v>
+        <v>37.89204751497597</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -16211,19 +16211,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3075367479482504</v>
+        <v>0.0566266321567887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4426213128424408</v>
+        <v>0.1759564879729537</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7939512377918043</v>
+        <v>0.6779994458025137</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5545599588396645</v>
+        <v>0.2379635101371399</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>75.38896104307497</v>
+        <v>31.50548575107995</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16509,23 +16509,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06309353886641196</v>
+        <v>0.04630161871294735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1955145226044188</v>
+        <v>0.1532061250278864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4718871597087297</v>
+        <v>0.6736741084170416</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2511842727290305</v>
+        <v>0.2151781092791443</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.4734356765354</v>
+        <v>28.08620392990246</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16557,19 +16557,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1122799582088905</v>
+        <v>0.07150838994664988</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2617276144490382</v>
+        <v>0.2206274408598216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4043744323086809</v>
+        <v>0.6635420256832227</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3350820171374324</v>
+        <v>0.2674105269929549</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>45.31478142658052</v>
+        <v>39.65597578584561</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -16597,23 +16597,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04801355523964849</v>
+        <v>0.05206385572611216</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1677912880197609</v>
+        <v>0.1714912781367585</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.480979224246086</v>
+        <v>0.7400340200413735</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2191199562788577</v>
+        <v>0.2281750550040739</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.35549214861258</v>
+        <v>30.06134147592104</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -17233,19 +17233,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7915478268442667</v>
+        <v>0.5913106505031999</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6976016409807206</v>
+        <v>0.6252596311359322</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.516714034357398</v>
+        <v>1.783131489010074</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8896897362812874</v>
+        <v>0.768967262309131</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>105.1813714152738</v>
+        <v>79.06429673207236</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17531,23 +17531,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1432859360752669</v>
+        <v>0.09629303206516342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3055158067723472</v>
+        <v>0.2469831125624737</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7460723936853892</v>
+        <v>0.8152713352127141</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3785312881061048</v>
+        <v>0.3103111858524655</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>58.97271936982493</v>
+        <v>42.72289078878701</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17579,19 +17579,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05846403939053797</v>
+        <v>0.1298934579765844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1873670611846444</v>
+        <v>0.297791804976579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6112608068449167</v>
+        <v>0.9800283027652161</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2417933816102872</v>
+        <v>0.3604073500590469</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>32.45224917793217</v>
+        <v>52.97476335783534</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17623,19 +17623,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06436263083206335</v>
+        <v>0.06743289983958836</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2024447270536349</v>
+        <v>0.2088630141356293</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6147466144747596</v>
+        <v>0.7530095870444297</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2536979125496766</v>
+        <v>0.2596784547081031</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>34.98042100446048</v>
+        <v>37.89204751497597</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -18255,19 +18255,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.353875107700639</v>
+        <v>0.9009664617352842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.26083746481892</v>
+        <v>0.8019193832614205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4837107162478086</v>
+        <v>0.3855798770676832</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.534234371828711</v>
+        <v>0.9491925314367387</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>63.3952196730571</v>
+        <v>33.28908280987642</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18553,23 +18553,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.540782064859077</v>
+        <v>0.5423415666669422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9868469503498843</v>
+        <v>0.5630079029407061</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3792384633761565</v>
+        <v>0.2997312354655016</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.241282427515623</v>
+        <v>0.7364384337247359</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>53.40418905346852</v>
+        <v>25.13165118133305</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18601,19 +18601,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1613193098453252</v>
+        <v>0.3809839442888781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2614333021157794</v>
+        <v>0.3531882222445691</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1257054515762414</v>
+        <v>0.2759373480669984</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4016457516834022</v>
+        <v>0.6172389685436899</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.39065787114794</v>
+        <v>15.83520653920517</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18645,19 +18645,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2514377745187826</v>
+        <v>0.4024037974572318</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4233342658829616</v>
+        <v>0.4751514285691738</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1699887922305908</v>
+        <v>0.291939639085468</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5014357132462571</v>
+        <v>0.6343530542664958</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>16.89311059012295</v>
+        <v>20.96162493197377</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -19277,19 +19277,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.417198335805305</v>
+        <v>2.566751470763633</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.23264952791184</v>
+        <v>1.270160713763216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4703256058740029</v>
+        <v>0.5359535999225225</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.554734168855018</v>
+        <v>1.602108445381783</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>50.7248537105548</v>
+        <v>57.07398490169238</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19575,23 +19575,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8894858603663572</v>
+        <v>0.8034630078489977</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7149916559992299</v>
+        <v>0.7398035954329822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2883073376732927</v>
+        <v>0.348337821388767</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9431255803795999</v>
+        <v>0.8963609807711387</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>34.02195705434792</v>
+        <v>34.45274756290078</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19623,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2875003749422267</v>
+        <v>0.3645725814260123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3661184015730993</v>
+        <v>0.3680271250279071</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2206721601037396</v>
+        <v>0.2996633999261913</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5361906143734956</v>
+        <v>0.603798460933789</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.41299752651552</v>
+        <v>16.8608989096078</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19663,23 +19663,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3321654909511671</v>
+        <v>0.6016671949759752</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4776896665656278</v>
+        <v>0.5609855932476676</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2348787163907228</v>
+        <v>0.3314185550720728</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5763380006135003</v>
+        <v>0.7756720924307998</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>20.2778682897264</v>
+        <v>25.94651466888533</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -20299,19 +20299,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>18.2302622219145</v>
+        <v>8.459338328765387</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.276690389494537</v>
+        <v>2.192921746224119</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.411712411277229</v>
+        <v>1.321165183830441</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>4.269691115515794</v>
+        <v>2.908494168597453</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>99.72299546864461</v>
+        <v>66.13305991754328</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -20597,23 +20597,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.183516793583657</v>
+        <v>1.204228280068331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.464141482710857</v>
+        <v>0.8302796271977498</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6257002567861477</v>
+        <v>0.5417615580680429</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.784241237496672</v>
+        <v>1.097373354910867</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>68.49580087152751</v>
+        <v>36.17305411391823</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20641,23 +20641,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5137748989066412</v>
+        <v>0.5119205384389363</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4438697993391033</v>
+        <v>0.4343937149019357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3090521757715387</v>
+        <v>0.3922949718984732</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.716780928113075</v>
+        <v>0.7154862251916079</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>20.04460112243276</v>
+        <v>19.83784679246988</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20685,23 +20685,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.39720128580031</v>
+        <v>0.5293905008805205</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5158189357908167</v>
+        <v>0.6118980191581265</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2878865602538441</v>
+        <v>0.3938417046813726</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6302390703537111</v>
+        <v>0.7275922627959429</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>22.76055540336368</v>
+        <v>28.15552633793549</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -21321,19 +21321,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05122798685223231</v>
+        <v>0.07530042030702892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1696211344916215</v>
+        <v>0.2265762454007684</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3392986887054141</v>
+        <v>0.6769037046179657</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2263360043215226</v>
+        <v>0.2744092205211569</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.5906965629864</v>
+        <v>40.82976504890838</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21351,19 +21351,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05307370864084698</v>
+        <v>0.08183750690396803</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1739118614144849</v>
+        <v>0.2392480865600334</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3259800742390866</v>
+        <v>0.731506533781054</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2303773179825805</v>
+        <v>0.2860725553141511</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>30.92436807895467</v>
+        <v>42.9392664885684</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -21709,23 +21709,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03332030081596806</v>
+        <v>0.06131083828188283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1327368318656647</v>
+        <v>0.1896447899699964</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3138570044149345</v>
+        <v>0.6983368205699221</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1825384913270844</v>
+        <v>0.2476102547995192</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.54307850915723</v>
+        <v>33.77119533783075</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21739,23 +21739,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03487850495182161</v>
+        <v>0.06119559228382116</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1360780888436622</v>
+        <v>0.1952195639257088</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3058000953564823</v>
+        <v>0.7028759751204741</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1867578778842317</v>
+        <v>0.2473774288083316</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.03919047689707</v>
+        <v>34.73550475749669</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21775,19 +21775,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1086896368044592</v>
+        <v>0.07422975721507181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2757135688959685</v>
+        <v>0.2334402651998579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7056947555176416</v>
+        <v>0.6575970055981809</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3296811138122097</v>
+        <v>0.2724513850489144</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>45.73257026682357</v>
+        <v>42.70411452545477</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21805,19 +21805,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09128670867927462</v>
+        <v>0.07105386373439963</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2485618621905018</v>
+        <v>0.2288380980197061</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5841834558354408</v>
+        <v>0.6619685648882048</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.302136903868552</v>
+        <v>0.2665593062235863</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>42.15970928265024</v>
+        <v>41.62979921698081</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -21833,53 +21833,53 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.0759404382879616</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2205414892329076</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7621069306532909</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2755729273494797</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>38.2201169853661</v>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting Regressor</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>0.03722352122018122</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0.1466109497363835</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0.4024373569791848</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0.192933981507098</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>25.38572696616949</v>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
-        </is>
-      </c>
       <c r="L15" s="8" t="n">
-        <v>0.05708941448535501</v>
+        <v>0.05334702395436381</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1903011716057363</v>
+        <v>0.1782673856661553</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.494304436956267</v>
+        <v>0.6361015522010602</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2389339123802961</v>
+        <v>0.2309697468379004</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>31.93583952126601</v>
+        <v>32.16420801985134</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -22631,19 +22631,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2586968230338053</v>
+        <v>0.3710960419295747</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4263410618673389</v>
+        <v>0.5044248930273485</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1604877880314153</v>
+        <v>0.2391956530428878</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5086224759424276</v>
+        <v>0.6091765277237582</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>17.23376834198856</v>
+        <v>22.75558606293814</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22661,19 +22661,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.3811731249652256</v>
+        <v>0.3848073504714201</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4981519835884466</v>
+        <v>0.4513444692911964</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1755728478314852</v>
+        <v>0.1842473700825724</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6173921970394715</v>
+        <v>0.620328421460294</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>20.21837427571159</v>
+        <v>20.30534341421979</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -23023,19 +23023,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2471783246446872</v>
+        <v>0.3237239012814725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3704171157843664</v>
+        <v>0.4557339964835999</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.143795299143082</v>
+        <v>0.2295938226195304</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4971703175418734</v>
+        <v>0.5689673991376593</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.43755025118084</v>
+        <v>20.8825597150774</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -23053,19 +23053,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1779070317387476</v>
+        <v>0.2593587740196621</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3181701435890488</v>
+        <v>0.3576300779971119</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1213039003168545</v>
+        <v>0.1893990271818963</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.4217902698483544</v>
+        <v>0.5092727893964708</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>12.77357666420874</v>
+        <v>16.76295137344759</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23085,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.131228866179128</v>
+        <v>0.2756862992744278</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2098914300555686</v>
+        <v>0.275803220994265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1045283201063035</v>
+        <v>0.2290021045032923</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3622552500366669</v>
+        <v>0.5250583770157636</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.567426666826996</v>
+        <v>13.15530357008171</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23115,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1306643543324128</v>
+        <v>0.2949179101480566</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2273234537551931</v>
+        <v>0.2970529610755045</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1091125880307054</v>
+        <v>0.2394510215883955</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3614752471918552</v>
+        <v>0.5430634494679757</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>9.177563517260554</v>
+        <v>13.90189501245399</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -23147,19 +23147,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2571744635343652</v>
+        <v>0.3790195386575965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4218489662651764</v>
+        <v>0.4946727346234784</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1670556326356496</v>
+        <v>0.2819204035577403</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5071237162018408</v>
+        <v>0.6156456274981545</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>16.87647265035794</v>
+        <v>22.00712030620658</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -23173,23 +23173,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1100436876018535</v>
+        <v>0.2863648581356608</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2451013174733216</v>
+        <v>0.3697011666055518</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1075497716129956</v>
+        <v>0.2432983995481512</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.3317283340353271</v>
+        <v>0.5351306925748707</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>9.947040065769905</v>
+        <v>16.92064448551152</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -23942,19 +23942,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3418471173409383</v>
+        <v>0.4328251956115934</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4612866491816356</v>
+        <v>0.5088076023166588</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2373436012349735</v>
+        <v>0.272488902981282</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5846769341618825</v>
+        <v>0.6578945170858269</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>20.98453132509512</v>
+        <v>24.23459433508097</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23972,19 +23972,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.4438001086159178</v>
+        <v>0.560463850286411</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4825953791858221</v>
+        <v>0.5604758901959201</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2010140588175619</v>
+        <v>0.2663217088435869</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6661832395189163</v>
+        <v>0.7486413362127494</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>21.99801587611037</v>
+        <v>26.70196933516797</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -24334,19 +24334,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2166239379954819</v>
+        <v>0.3178533415819257</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3363013045712627</v>
+        <v>0.3837599503247287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1974396559089565</v>
+        <v>0.2855200889245316</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4654287679070578</v>
+        <v>0.5637848362468839</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.62096501669578</v>
+        <v>18.6714922610402</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24360,23 +24360,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3798850169520357</v>
+        <v>0.2490877429087366</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3638563350517479</v>
+        <v>0.3662555702250003</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2095007552785002</v>
+        <v>0.2287210626481794</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.6163481296735115</v>
+        <v>0.4990869091738798</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>20.19819827013265</v>
+        <v>17.76781925673068</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24392,23 +24392,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.094612757866517</v>
+        <v>0.3657027165743567</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.725590202714397</v>
+        <v>0.3520948010980235</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4008199325241937</v>
+        <v>0.3297273380400158</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.046237429012419</v>
+        <v>0.6047335914056343</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>34.66531077616152</v>
+        <v>17.12185908153443</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24422,23 +24422,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.2948392007496541</v>
+        <v>0.9905213002533584</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.306470012220622</v>
+        <v>0.613427801223585</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2370671459499867</v>
+        <v>0.4347769103212827</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.5429909766742483</v>
+        <v>0.9952493658643338</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>14.14436250064633</v>
+        <v>31.49071334204869</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24458,19 +24458,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3127996190007162</v>
+        <v>0.4355665759347531</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4224437030070288</v>
+        <v>0.5025050117402476</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2522934443047047</v>
+        <v>0.3553210903495887</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5592849175516145</v>
+        <v>0.6599746782526986</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.87563290722615</v>
+        <v>23.29753383645266</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -24484,23 +24484,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.4990379365655119</v>
+        <v>0.3734662356182121</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3966649187259562</v>
+        <v>0.4395546554913354</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2471181662164338</v>
+        <v>0.3282940833845899</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7064261720558717</v>
+        <v>0.6111188391943192</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>21.58116479569334</v>
+        <v>20.77126112554766</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -25253,19 +25253,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5802260879766744</v>
+        <v>0.6045061448600415</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5447702648915055</v>
+        <v>0.5407831564231991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2171991775515315</v>
+        <v>0.2363195688297336</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7617257301527068</v>
+        <v>0.7774999323858759</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>26.90016876058101</v>
+        <v>28.33750940101519</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25283,19 +25283,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.493433461694152</v>
+        <v>0.6572082091276488</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5400746124299187</v>
+        <v>0.5922098369970363</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2064348787639192</v>
+        <v>0.2290327338878747</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.702448191466212</v>
+        <v>0.8106837910848155</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>23.18005454047471</v>
+        <v>26.83416255034731</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -25641,53 +25641,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2644173397256921</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3417797792635295</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1748981651326611</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.5142152659399486</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>16.68811059599911</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.3229829544697464</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.3799404427693882</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.1787902240529597</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.5683158932053074</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>17.5802808523768</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.2754410259172058</v>
+        <v>0.3376216528316085</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.336994700858512</v>
+        <v>0.3698479492956234</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.160385134798517</v>
+        <v>0.2027020103330484</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5248247573402057</v>
+        <v>0.5810521945846246</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.63438052853534</v>
+        <v>17.94512641710199</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25703,23 +25703,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.07043802934871</v>
+        <v>1.275753748234735</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6989361999503891</v>
+        <v>0.8170862935992583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3385670981833389</v>
+        <v>0.4822439000225783</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.034619751091535</v>
+        <v>1.129492695078075</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>34.44734919930877</v>
+        <v>40.50356781179463</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25737,19 +25737,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.2233687441036815</v>
+        <v>0.3299637979395976</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2711368481364618</v>
+        <v>0.3143730729553507</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1848835298444521</v>
+        <v>0.2745913276945217</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4726190263877254</v>
+        <v>0.5744247539404945</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>11.95754661473262</v>
+        <v>14.93350960604784</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25769,19 +25769,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2892778259499972</v>
+        <v>0.30023980601172</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4181169321634409</v>
+        <v>0.4279838854061811</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2166207303261089</v>
+        <v>0.2582384386191374</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5378455409780741</v>
+        <v>0.547941425712384</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.76814137382888</v>
+        <v>19.54575410551028</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -25795,23 +25795,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.2569721832730933</v>
+        <v>0.3512458089543803</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3436361481135826</v>
+        <v>0.4484908623347259</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1902032783964064</v>
+        <v>0.2861289977840481</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.5069242381984642</v>
+        <v>0.5926599437741514</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>14.76531009357816</v>
+        <v>20.43628092346581</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -26566,19 +26566,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01363821122321632</v>
+        <v>0.05359821727614201</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1020216944089986</v>
+        <v>0.196668187711011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1558790018801819</v>
+        <v>0.3926305821184592</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1167827522505628</v>
+        <v>0.2315128879266595</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.06130398049902</v>
+        <v>38.73716018068805</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -26596,19 +26596,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.01159060081481646</v>
+        <v>0.0511638146743366</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.09166419992804321</v>
+        <v>0.1913259000595252</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1381831215852358</v>
+        <v>0.3976594937136747</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1076596526783198</v>
+        <v>0.2261941968184343</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>14.35402841003698</v>
+        <v>37.41491945489239</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -26954,23 +26954,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04373515029983367</v>
+        <v>0.04349151044471076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.166276633401566</v>
+        <v>0.1652368749557216</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2585712114312805</v>
+        <v>0.379475359988805</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2091295060478881</v>
+        <v>0.208546183002017</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.2505086583095</v>
+        <v>31.08169420539239</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26988,19 +26988,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05053596045570524</v>
+        <v>0.04725844532318314</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1870126147428601</v>
+        <v>0.1709043491146321</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3089895789976239</v>
+        <v>0.4809961015469781</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2248020472676022</v>
+        <v>0.2173900764137663</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>29.88651644622367</v>
+        <v>31.3782797408562</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27016,23 +27016,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02578201283033617</v>
+        <v>0.1399753573225131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1240035519232762</v>
+        <v>0.3111413962051198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2854727729008724</v>
+        <v>0.9300753360267614</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.160567782666188</v>
+        <v>0.374132807065236</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>20.31243934579065</v>
+        <v>52.30732705072212</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27050,19 +27050,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.02719042653385222</v>
+        <v>0.1099919203350136</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1428564161245625</v>
+        <v>0.2711945707355039</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2689561573830314</v>
+        <v>0.8912998356420058</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1648951986379598</v>
+        <v>0.3316502982585929</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>22.46643495077901</v>
+        <v>44.30139460410417</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -27078,23 +27078,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0533224282163323</v>
+        <v>0.05393968304562811</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1816258351434023</v>
+        <v>0.1775878170508652</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3453322867817593</v>
+        <v>0.6227309981938727</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.230916496197938</v>
+        <v>0.2322491830892589</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.34026631476321</v>
+        <v>32.49375058075522</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -27108,23 +27108,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0533224282163323</v>
+        <v>0.05846315396323661</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1816258351434023</v>
+        <v>0.1899874899891309</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3453322867817593</v>
+        <v>0.6045655298949658</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.230916496197938</v>
+        <v>0.2417915506448408</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.34026631476321</v>
+        <v>33.43764838226924</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -27880,19 +27880,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>9.632483137017954e-05</v>
+        <v>0.08056081745277879</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.007676927617552522</v>
+        <v>0.2135504195748584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01496128159459878</v>
+        <v>0.4970857660158985</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.009814521453956863</v>
+        <v>0.2838323756247317</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1.484070064448804</v>
+        <v>41.28422759854701</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27910,19 +27910,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>8.938424574158632e-05</v>
+        <v>0.07691334981373352</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.007419336616495912</v>
+        <v>0.2083190185200179</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.01456010092624267</v>
+        <v>0.4598915363356494</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.009454324182171157</v>
+        <v>0.2773325617624687</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>1.443831593687438</v>
+        <v>39.96491805572981</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -28268,23 +28268,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.025986026743167</v>
+        <v>0.06014707668796939</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1252239875821513</v>
+        <v>0.1890434146914531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4415462412922844</v>
+        <v>0.6519096439359867</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1612018199127014</v>
+        <v>0.2452490095555319</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.16411532989554</v>
+        <v>35.40593657523273</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28298,23 +28298,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02600327716536734</v>
+        <v>0.05433005623058747</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1248932643882035</v>
+        <v>0.1870971803936164</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.4049490122055844</v>
+        <v>0.6480675344838732</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1612553167041861</v>
+        <v>0.2330880868482718</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>23.99952007011674</v>
+        <v>35.01764832774434</v>
       </c>
     </row>
     <row r="14">
@@ -28330,23 +28330,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2402036827354545</v>
+        <v>0.1480396959706397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4020435128191102</v>
+        <v>0.2998703592183774</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8700720063812398</v>
+        <v>1.224708036624076</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4901057872903099</v>
+        <v>0.3847592701555606</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>77.65183088874844</v>
+        <v>49.6785564787866</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -28360,23 +28360,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.854558546941448</v>
+        <v>0.1040433612967424</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>1.14565198728784</v>
+        <v>0.2579576848898438</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.916437705569617</v>
+        <v>1.021453142593659</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.36182177502838</v>
+        <v>0.3225575317625407</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>152.0007603982475</v>
+        <v>45.98884249113925</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28396,19 +28396,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05819297329741843</v>
+        <v>0.06631185400383235</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.186275707814191</v>
+        <v>0.1996648975647506</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6982452514991803</v>
+        <v>0.8432995327850208</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2412321978870533</v>
+        <v>0.2575108813309301</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>31.89892222937997</v>
+        <v>35.74873149438121</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -28422,23 +28422,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0587924748485472</v>
+        <v>0.06816276534994962</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1879476978669591</v>
+        <v>0.2039977590644612</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.6534644670535544</v>
+        <v>0.8307177071473986</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2424715959623873</v>
+        <v>0.2610799979890256</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>32.19567361436329</v>
+        <v>36.62076441134099</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -29192,19 +29192,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03305091673989578</v>
+        <v>0.2344165412935968</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.136956519844697</v>
+        <v>0.3666783193643857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2991866137424857</v>
+        <v>0.9172554817512911</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1817991109436341</v>
+        <v>0.4841658200385451</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.00909018100465</v>
+        <v>70.05596913974476</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -29222,19 +29222,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03197628338735018</v>
+        <v>0.1374107886551882</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.134160983349203</v>
+        <v>0.3040707453935492</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2993693204559252</v>
+        <v>0.7153624310881309</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1788191359652266</v>
+        <v>0.3706896122839002</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>24.57237119175917</v>
+        <v>63.53472882127967</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -29580,53 +29580,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.08347427393483764</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2266885215944014</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.5573420154897422</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2889191477469737</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>41.05606995600169</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.04955249469614489</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.1736527975386822</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.3950277668616277</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.2226038964082725</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>29.62912418346871</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.05067907765906792</v>
+        <v>0.06624414490919266</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1775108116007294</v>
+        <v>0.2158522583824434</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3830817479677024</v>
+        <v>0.588361425200339</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2251201405007289</v>
+        <v>0.2573793793395125</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>30.87144182004031</v>
+        <v>39.57272086148758</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29642,53 +29642,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1577591824577247</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3243623007852403</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.012662936474528</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.3971891016351339</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>63.42920198966092</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.07895231244437664</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.2300111724702797</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.683951005958951</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.2809845412907561</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>36.79315848537819</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.1114532489755844</v>
+        <v>0.09832230409908918</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2725582535897086</v>
+        <v>0.2538337259126597</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.8238497799318164</v>
+        <v>0.7883488291296592</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3338461456653115</v>
+        <v>0.3135638756283785</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>42.94116216846409</v>
+        <v>45.08616535244156</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29704,23 +29704,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05708941448535501</v>
+        <v>0.08932338703777425</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1903011716057363</v>
+        <v>0.2283981154307033</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.494304436956267</v>
+        <v>0.662672497329751</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2389339123802961</v>
+        <v>0.298870184256935</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>31.93583952126601</v>
+        <v>41.2115352488801</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -29734,23 +29734,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.05708941448535501</v>
+        <v>0.06054821712659977</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1903011716057363</v>
+        <v>0.1968028488520547</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.494304436956267</v>
+        <v>0.6577627012179064</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2389339123802961</v>
+        <v>0.2460654732517339</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>31.93583952126601</v>
+        <v>35.34839791535524</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
